--- a/women_diaries/Diary 7.xlsx
+++ b/women_diaries/Diary 7.xlsx
@@ -41,6 +41,12 @@
     <t xml:space="preserve">My machine was recently formatted, and it did not have Linux installed yet, so it was not possible to install the source code. The professor dismisses the class, and I go home to try to install the Linux operating system. </t>
   </si>
   <si>
+    <t>The previous days were dedicated to installing the Ubuntu operating system, but, as the used distribution is a little bit old, some repositories were not active, causing errors during the updates and installations. After a lot frustrations and attempts to solve the problem, I succeeded by changing some settings related to the download server.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After all these setbacks I started to install the necessary dependencies, however, I’m in the university now, and I’m not able to download the dependencies using its network, so I am not able to install LibreOffice at the moment too.</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">The previous days were dedicated to installing the Ubuntu operating system, but, as the used distribution is a little bit old, some repositories were not active, causing errors during the updates and installations. </t>
     </r>
@@ -59,13 +65,16 @@
     <t>A-</t>
   </si>
   <si>
-    <t xml:space="preserve"> After all these setbacks I started to install the necessary dependencies, however, I’m in the university now, and I’m not able to download the dependencies using its network, so I am not able to install LibreOffice at the moment too.</t>
+    <t xml:space="preserve"> During the week, besides the university network, I depend of another person network, who lives in the house next mine (in the house where I live, from Monday to Friday, there is no network connection), the internet is only accessible during the daytime, when I’m in the university. Then, only during the weekend (when I’ll go back to my parents house), I'll be able to download using the local network.</t>
   </si>
   <si>
-    <t>The previous days were dedicated to installing the Ubuntu operating system, but, as the used distribution is a little bit old, some repositories were not active, causing errors during the updates and installations. After a lot frustrations and attempts to solve the problem, I succeeded by changing some settings related to the download server.</t>
+    <t>I keep trying to download the LibreOffice, but without success, the network continues blocking the download. It’s really frustrating, especially after spending the entire week without being able to access the source code, I’m not make any decision to solve this problem while I’m in the university.</t>
   </si>
   <si>
     <t xml:space="preserve"> During the week, besides the university network, I depend of another person network, who lives in the house next mine (in the house where I live, from Monday to Friday, there is no network connection), the internet is only accessible during the daytime, when I’m in the university. Then, only during the weekend (when I go back to my parents house), I am able to download using the local network.</t>
+  </si>
+  <si>
+    <t>Today, after reinstalling the entire operating system (now using the latest version of Xubuntu), I reinstalled all the dependencies, and started the download of the source code. However, as people warned me, there is a long wait until the whole process is completed, I started 4 hours ago and at the moment the progress is still 51%.</t>
   </si>
   <si>
     <r>
@@ -83,16 +92,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> During the week, besides the university network, I depend of another person network, who lives in the house next mine (in the house where I live, from Monday to Friday, there is no network connection), the internet is only accessible during the daytime, when I’m in the university. Then, only during the weekend (when I’ll go back to my parents house), I'll be able to download using the local network.</t>
+    <t xml:space="preserve">After a few hours, the process was finished, however, when I started the setup process, I couldn’t continue because there were dependencies that had not been installed. I installed the missing dependencies, and I resumed the compilation. During the process (around 4 AM) I realize that it is still far from over, so I leaved the notebook on, and went to sleep. </t>
   </si>
   <si>
-    <t>Today, after reinstalling the entire operating system (now using the latest version of Xubuntu), I reinstalled all the dependencies, and started the download of the source code. However, as people warned me, there is a long wait until the whole process is completed, I started 4 hours ago and at the moment the progress is still 51%.</t>
+    <t>All the followed instructions were found on the official LibreOffice website, in the “Community / Developers” section, where there is a option to download the source code. In this section, there are some instructions about how to compile and run the software. I had some doubts, so I accessed the available Wiki link, and there is a video tutorial that really helped me a lot.</t>
   </si>
   <si>
-    <t>I keep trying to download the LibreOffice, but without success, the network continues blocking the download. It’s really frustrating, especially after spending the entire week without being able to access the source code, I’m not make any decision to solve this problem while I’m in the university.</t>
+    <t>After letting the code compiling over the night, when I woke up, I saw that everything has been compiled correctly. But, when I tried to execute it again today, using the following command ‘$ instdir/program/soffice --writer’, an error appeared: ‘bash: instdir/program/soffice: File or folder not found’. I don’t know what is exactly happening, I feel a bit lost.</t>
   </si>
   <si>
-    <t xml:space="preserve">After a few hours, the process was finished, however, when I started the setup process, I couldn’t continue because there were dependencies that had not been installed. I installed the missing dependencies, and I resumed the compilation. During the process (around 4 AM) I realize that it is still far from over, so I leaved the notebook on, and went to sleep. </t>
+    <t>Today is Monday, and I keep with the same LibreOffice compilation problem. Even searching on Google, I don’t find a solution. Initially, the compiling process supposedly worked well, but I’m not sure, because it is taking a long time to finish. I left the notebook on and went to my bed.</t>
   </si>
   <si>
     <r>
@@ -111,6 +120,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">The other day, when I woke up, there was something open (A welcome screen from LibreOffice, or something like that), however, I ended up closing it unintentionally before checking what had happened in the compilation. When I realize that everything was working fine, I turned the notebook off. But, now, when I try to execute the following command,  ‘# ./autogen.sh’, the following error appears: ‘bash: ./autogen.sh: File or folder not found’. Which leads me to the conclusion that there is no such folder in the defined path. Visiting the LibreOffice folder, I see that there isn’t definitely any file. </t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">After letting the code compiling over the night, when I woke up, I saw that everything has been compiled correctly. But, when I tried to execute it again today, using the following command ‘$ instdir/program/soffice --writer’, </t>
     </r>
@@ -121,6 +133,9 @@
       </rPr>
       <t>an error appeared: ‘bash: instdir/program/soffice: File or folder not found’. I don’t know what is exactly happening, I feel a bit lost.</t>
     </r>
+  </si>
+  <si>
+    <t>Since I don’t know what to do, so I’ll try to start the whole process again. All the instructions I followed were taken from the LibreOffice website, from Wiki and from the available video tutorial on the page. I  downloaded the source code again, using: ‘# git clone git://anongit.freedesktop.org/libreoffice/core’ (It was taken from the LibreOffice webpage), and the following error occurred: ‘fatal: destination path 'core' already exists and is not an empty directory’.</t>
   </si>
   <si>
     <r>
@@ -135,13 +150,11 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">The other day, when I woke up, there was something open (A welcome screen from LibreOffice, or something like that), however, I ended up closing it unintentionally before checking what had happened in the compilation. When I realize that everything was working fine, I turned the notebook off. But, now, when I try to execute the following command,  ‘# ./autogen.sh’, the following error appears: ‘bash: ./autogen.sh: File or folder not found’. Which leads me to the conclusion that there is no such folder in the defined path. Visiting the LibreOffice folder, I see that there isn’t definitely any file. </t>
+    <t>I tried again using the command taken from the Wiki: ‘# git clone git://anongit.freedesktop.org/libreoffice/core libreoffice’, this time the download started. After approximately 4 hours the download is completed, so now I’ll only follow the instructions suggested in the Wiki: using the ‘# cd libreoffice’ to access the LibreOffice folder, followed by  ‘# ./autogen.sh’, and then ‘# make’. A few more hours are needed (I started at 1:30 PM, and now it’s 03:20 PM, I have not finished yet, so I will sleep). When I woke up, around 7:30 AM, the process was still not finished, it only ended at 08:40 PM.</t>
   </si>
   <si>
-    <t>All the followed instructions were found on the official LibreOffice website, in the “Community / Developers” section, where there is a option to download the source code. In this section, there are some instructions about how to compile and run the software. I had some doubts, so I accessed the available Wiki link, and there is a video tutorial that really helped me a lot.</t>
-  </si>
-  <si>
-    <t>After letting the code compiling over the night, when I woke up, I saw that everything has been compiled correctly. But, when I tried to execute it again today, using the following command ‘$ instdir/program/soffice --writer’, an error appeared: ‘bash: instdir/program/soffice: File or folder not found’. I don’t know what is exactly happening, I feel a bit lost.</t>
+    <t xml:space="preserve">	Apparently everything worked well with the compilation of LibreOffice. I looked for files in the downloaded folders that could help me with the LibreOffice contribution process, especially the READ ME file. I also accessed Bugzilla. Now, I’m looking for a bug to try to fix. 
+</t>
   </si>
   <si>
     <r>
@@ -181,9 +194,6 @@
     </r>
   </si>
   <si>
-    <t>Today is Monday, and I keep with the same LibreOffice compilation problem. Even searching on Google, I don’t find a solution. Initially, the compiling process supposedly worked well, but I’m not sure, because it is taking a long time to finish. I left the notebook on and went to my bed.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -194,12 +204,6 @@
     <r>
       <t>A few more hours are needed (I started at 1:30 PM, and now it’s 03:20 PM, I have not finished yet, so I will sleep). When I woke up, around 7:30 AM, the process was still not finished, it only ended at 08:40 PM.</t>
     </r>
-  </si>
-  <si>
-    <t>Since I don’t know what to do, so I’ll try to start the whole process again. All the instructions I followed were taken from the LibreOffice website, from Wiki and from the available video tutorial on the page. I  downloaded the source code again, using: ‘# git clone git://anongit.freedesktop.org/libreoffice/core’ (It was taken from the LibreOffice webpage), and the following error occurred: ‘fatal: destination path 'core' already exists and is not an empty directory’.</t>
-  </si>
-  <si>
-    <t>I tried again using the command taken from the Wiki: ‘# git clone git://anongit.freedesktop.org/libreoffice/core libreoffice’, this time the download started. After approximately 4 hours the download is completed, so now I’ll only follow the instructions suggested in the Wiki: using the ‘# cd libreoffice’ to access the LibreOffice folder, followed by  ‘# ./autogen.sh’, and then ‘# make’. A few more hours are needed (I started at 1:30 PM, and now it’s 03:20 PM, I have not finished yet, so I will sleep). When I woke up, around 7:30 AM, the process was still not finished, it only ended at 08:40 PM.</t>
   </si>
   <si>
     <r>
@@ -236,10 +240,6 @@
       <t xml:space="preserve"> Now, I’m looking for a bug to try to fix. 
 </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">	Apparently everything worked well with the compilation of LibreOffice. I looked for files in the downloaded folders that could help me with the LibreOffice contribution process, especially the READ ME file. I also accessed Bugzilla. Now, I’m looking for a bug to try to fix. 
-</t>
   </si>
 </sst>
 </file>
@@ -423,11 +423,11 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -441,7 +441,7 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -457,7 +457,7 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -473,11 +473,11 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -523,7 +523,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -543,11 +543,11 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -561,13 +561,13 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -579,7 +579,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -595,16 +595,16 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="7"/>
       <c r="D14" s="1"/>
       <c r="E14" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -615,7 +615,7 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -633,7 +633,7 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -14512,7 +14512,7 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -14528,7 +14528,7 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -14544,7 +14544,7 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -14560,7 +14560,7 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -14608,7 +14608,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -14624,7 +14624,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -14640,7 +14640,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -14656,7 +14656,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -14672,7 +14672,7 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -14688,7 +14688,7 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -14704,7 +14704,7 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -28577,7 +28577,7 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -28593,7 +28593,7 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -28609,7 +28609,7 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -28625,7 +28625,7 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -28673,7 +28673,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -28689,7 +28689,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -28705,7 +28705,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -28721,7 +28721,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -28737,7 +28737,7 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -28753,7 +28753,7 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -28769,7 +28769,7 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
